--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{827CAAFD-FEA6-459D-BA5F-85CC0229203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CFD918-2701-4892-9393-55E929BB1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4A1A6920-8026-417F-AA97-506F60A185A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F80A4E26-B0A6-4CFF-9104-817A9393E1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -5808,7 +5808,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279C2323-C919-B5CF-F7C9-7E2CD06784CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368FBA5D-D11E-B60A-12A0-0CBF15076D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0991A1-92F8-482F-A84F-449ED1C481FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC2BA7-548F-48AD-80E0-1AACA56BF6A6}">
   <dimension ref="A1:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CFD918-2701-4892-9393-55E929BB1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{862E0FA0-652C-4651-8BD6-CF910CB91905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F80A4E26-B0A6-4CFF-9104-817A9393E1E1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{970EFF86-5A2A-444E-9158-02435405641A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -5808,7 +5808,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368FBA5D-D11E-B60A-12A0-0CBF15076D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1503EE9-B322-E34B-28CB-75202F019CE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC2BA7-548F-48AD-80E0-1AACA56BF6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BEAAB-C3DB-4743-BD95-91FA26989D97}">
   <dimension ref="A1:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{862E0FA0-652C-4651-8BD6-CF910CB91905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4787D343-1AD0-4B8B-9646-7A7EE9121C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{970EFF86-5A2A-444E-9158-02435405641A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6307ACDF-FAB0-4B59-943E-BCC4F87F4F40}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -5808,7 +5808,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1503EE9-B322-E34B-28CB-75202F019CE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5CB135-9863-B682-D22C-C6B546C84EAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BEAAB-C3DB-4743-BD95-91FA26989D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DA3CA1-EDD7-46CB-8FCB-2AB0B59B318C}">
   <dimension ref="A1:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4787D343-1AD0-4B8B-9646-7A7EE9121C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED890367-7FB5-472C-8620-2F1866D8C5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6307ACDF-FAB0-4B59-943E-BCC4F87F4F40}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{05E3F992-CD92-4BF3-8DFB-F4322DF38C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -5808,7 +5808,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5CB135-9863-B682-D22C-C6B546C84EAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E379084B-5817-07F2-D4A5-75FE48C74F41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DA3CA1-EDD7-46CB-8FCB-2AB0B59B318C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820380B-7A4F-498C-986B-2D8D1BD9D2A0}">
   <dimension ref="A1:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED890367-7FB5-472C-8620-2F1866D8C5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F989FC-2E5C-46BD-BD80-E4305C406C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{05E3F992-CD92-4BF3-8DFB-F4322DF38C2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{891729CF-C3A7-48AF-A854-F011D8277F13}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -5808,7 +5808,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E379084B-5817-07F2-D4A5-75FE48C74F41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3C9B60-9D18-88D8-34D1-CC48BEF182F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820380B-7A4F-498C-986B-2D8D1BD9D2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE633FCA-0C9D-4828-828A-43263CEE55BF}">
   <dimension ref="A1:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E12ED5-0548-4E4E-A0F5-A3FA74D55F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E5802F-B975-4216-9573-F09B45B78F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3CDB4F76-87B2-4600-863A-B60D3BF4717B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5F26D263-9D1F-4A93-B918-7F323E9AB2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB94E9B-2A74-45BE-8CAA-3A65203D2DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0AF92B-3482-4D60-8A99-2E6DF339CEE8}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E5802F-B975-4216-9573-F09B45B78F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FD740A-45B6-4C38-93B5-C4985784CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5F26D263-9D1F-4A93-B918-7F323E9AB2D4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{71169509-33C6-46F9-A740-D4313000AA78}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0AF92B-3482-4D60-8A99-2E6DF339CEE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9104CD9-68D7-495D-928F-9E6BB6E78839}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FD740A-45B6-4C38-93B5-C4985784CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33EB83B2-3063-4F08-9308-208087D2AF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{71169509-33C6-46F9-A740-D4313000AA78}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8C8447E6-BBFB-47F5-8D50-675090D6C1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9104CD9-68D7-495D-928F-9E6BB6E78839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA562B2-12FE-4BBD-8204-BBE998C52BCF}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33EB83B2-3063-4F08-9308-208087D2AF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E1E8CB-BEEA-421A-9FCF-FCE93E1AEF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8C8447E6-BBFB-47F5-8D50-675090D6C1BA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{14A4012A-FF4C-490D-917C-15FEBFCE7B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA562B2-12FE-4BBD-8204-BBE998C52BCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C75D16-B3E8-420B-B95F-5FBD5213D2D9}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E1E8CB-BEEA-421A-9FCF-FCE93E1AEF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25672820-B5D7-4432-8749-F6D25B0F3893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{14A4012A-FF4C-490D-917C-15FEBFCE7B8C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A4B3E96B-1BE2-4619-8CB2-DD6BFCE59B59}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C75D16-B3E8-420B-B95F-5FBD5213D2D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4EFE7A-B1A8-4B18-9367-06298492D6FC}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25672820-B5D7-4432-8749-F6D25B0F3893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7B7E29-64AB-47A5-ABF9-040ABC273300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A4B3E96B-1BE2-4619-8CB2-DD6BFCE59B59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CC1AFB81-D103-49ED-A5CE-23F23BBB7E18}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4EFE7A-B1A8-4B18-9367-06298492D6FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE30F38F-C5EE-493E-AD78-BC2E34234942}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7B7E29-64AB-47A5-ABF9-040ABC273300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2A38E0-2C08-4637-AAD2-747FB1FE3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CC1AFB81-D103-49ED-A5CE-23F23BBB7E18}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{041BA612-3A61-4D97-B850-2934018AF731}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE30F38F-C5EE-493E-AD78-BC2E34234942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B21960B-8890-408B-A41C-415CAAB5C08F}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2A38E0-2C08-4637-AAD2-747FB1FE3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2FE275-0F03-487F-B9CF-3FB9E3A68698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{041BA612-3A61-4D97-B850-2934018AF731}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9E68D029-4286-4F58-A4C2-12F8971A0213}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B21960B-8890-408B-A41C-415CAAB5C08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA62AC1C-7662-4B67-A762-AAAF373C25DF}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2FE275-0F03-487F-B9CF-3FB9E3A68698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{091B9E9B-5A3E-4352-B9A2-9C1B7E8E4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9E68D029-4286-4F58-A4C2-12F8971A0213}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B24C416E-5C31-4AAB-88E8-5E861A85C985}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA62AC1C-7662-4B67-A762-AAAF373C25DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B0B362-25F6-4984-A5C6-6B0398164C48}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{091B9E9B-5A3E-4352-B9A2-9C1B7E8E4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A1FB8F-FEF8-4955-86E2-894199E44B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B24C416E-5C31-4AAB-88E8-5E861A85C985}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{09D51734-5540-4D3A-8709-A98F0DCA7C67}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B0B362-25F6-4984-A5C6-6B0398164C48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACFF5F-3078-4CED-BCBE-804B241B25F7}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A1FB8F-FEF8-4955-86E2-894199E44B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5732E5-75A1-4355-93BD-2F944CE77417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{09D51734-5540-4D3A-8709-A98F0DCA7C67}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9C7A5B7F-2889-487C-A9B4-38E403879C96}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACFF5F-3078-4CED-BCBE-804B241B25F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181A0D8B-86DC-41BB-8BBB-337EACBBFB24}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5732E5-75A1-4355-93BD-2F944CE77417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A77B46-838C-41D9-A84D-A6FAD673E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9C7A5B7F-2889-487C-A9B4-38E403879C96}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{09D3B5CC-BFE7-497C-8BCD-7849B2C744C1}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181A0D8B-86DC-41BB-8BBB-337EACBBFB24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4532E7-261A-461D-AEEF-8EF17BB8DF56}">
   <dimension ref="B3:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
